--- a/assets/下载材料清单模板.xlsx
+++ b/assets/下载材料清单模板.xlsx
@@ -21,15 +21,16 @@
     <t>材料管理系统材料清单</t>
   </si>
   <si>
-    <t>请勿修改表头信息
-id：无需填写
-货架id:请在系统上查看</t>
+    <t>使用说明：</t>
   </si>
   <si>
-    <t>id</t>
+    <t>序号</t>
   </si>
   <si>
-    <t>名称*</t>
+    <t>配件ID</t>
+  </si>
+  <si>
+    <t>名称</t>
   </si>
   <si>
     <t>型号</t>
@@ -41,7 +42,7 @@
     <t>计量单位</t>
   </si>
   <si>
-    <t>货架ID*</t>
+    <t>货架</t>
   </si>
   <si>
     <t>层</t>
@@ -50,13 +51,10 @@
     <t>位</t>
   </si>
   <si>
-    <t>实时数量*</t>
+    <t>实时数量</t>
   </si>
   <si>
     <t>常备数量</t>
-  </si>
-  <si>
-    <t>警报数量</t>
   </si>
   <si>
     <t>创建人</t>
@@ -711,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,19 +1079,18 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N10"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.66666666666667" customWidth="1"/>
-    <col min="7" max="8" width="3.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.7777777777778" customWidth="1"/>
-    <col min="10" max="13" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="3" width="7.66666666666667" customWidth="1"/>
+    <col min="4" max="5" width="5.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" customWidth="1"/>
+    <col min="8" max="9" width="3.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.7777777777778" customWidth="1"/>
+    <col min="11" max="13" width="9.66666666666667" customWidth="1"/>
     <col min="14" max="14" width="5.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1137,410 +1137,410 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
